--- a/biology/Botanique/Calyptrogyne/Calyptrogyne.xlsx
+++ b/biology/Botanique/Calyptrogyne/Calyptrogyne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calyptrogyne est un genre de plantes de la famille des Arecaceae (Palmiers) comprenant des espèces natives de l'Amérique centrale.
 Calyptrogyne ghiesbreghtiana est une des espèces du genre la plus remarquable. C'est un palmier de petite taille dont le stipe ne dépasse pas 2 mètres. Les feuilles sont pennées et composés d'environ trois à neuf folioles.
@@ -512,11 +524,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Geonomateae
-Le genre Calyptrogyne partage sa sous-tribu avec 5 autres genres : Asterogyne, Calyptronoma, Geonoma, Pholidostachys, Welfia[1].
+Le genre Calyptrogyne partage sa sous-tribu avec 5 autres genres : Asterogyne, Calyptronoma, Geonoma, Pholidostachys, Welfia.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Calyptrogyne allenii (L.H.Bailey) de Nevers
 Calyptrogyne anomala de Nevers &amp; A.J.Hend.
